--- a/Goktekin/Landuse_Layer.xlsx
+++ b/Goktekin/Landuse_Layer.xlsx
@@ -13,7 +13,289 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="141">
+  <si>
+    <t>zoneID</t>
+  </si>
+  <si>
+    <t>LuF</t>
+  </si>
+  <si>
+    <t>AGRICULTURE</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>NEW DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>INDUSTRY</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (LOW DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (GATED NEIGHBORHOOD)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (MODERATE DENSITY)</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (MODERATE DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (LOW DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (MODERATE DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RECREATION AREA</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RECREATION AREA</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>INDUSTRY</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>COMMERCIAL AND RESIDENTIAL</t>
+  </si>
+  <si>
+    <t>HISTORICAL PRESERVATION AREA</t>
+  </si>
+  <si>
+    <t>CITY CENTER</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>densityCap</t>
+  </si>
+  <si>
+    <t>floorAreaR</t>
+  </si>
+  <si>
+    <t>avgIncome</t>
+  </si>
+  <si>
+    <t>highIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeB</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>highIncome</t>
+  </si>
+  <si>
+    <t>midIncome</t>
+  </si>
+  <si>
+    <t>highIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>lowIncomeB</t>
+  </si>
+  <si>
+    <t>midIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>midIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>setback</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>zoneID</t>
+  </si>
+  <si>
+    <t>LuF</t>
+  </si>
+  <si>
+    <t>AGRICULTURE</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>NEW DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>INDUSTRY</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (LOW DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (GATED NEIGHBORHOOD)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (MODERATE DENSITY)</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (MODERATE DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (LOW DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (MODERATE DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RECREATION AREA</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RECREATION AREA</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>INDUSTRY</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>COMMERCIAL AND RESIDENTIAL</t>
+  </si>
+  <si>
+    <t>HISTORICAL PRESERVATION AREA</t>
+  </si>
+  <si>
+    <t>CITY CENTER</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>densityCap</t>
+  </si>
+  <si>
+    <t>floorAreaR</t>
+  </si>
+  <si>
+    <t>avgIncome</t>
+  </si>
+  <si>
+    <t>highIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeB</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>highIncome</t>
+  </si>
+  <si>
+    <t>midIncome</t>
+  </si>
+  <si>
+    <t>highIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>lowIncomeB</t>
+  </si>
+  <si>
+    <t>midIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>midIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>setback</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
   <si>
     <t>zoneID</t>
   </si>
@@ -202,40 +484,40 @@
   <dimension ref="A1:H50"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.82421875" customWidth="true"/>
-    <col min="2" max="2" width="33.37890625" customWidth="true"/>
-    <col min="3" max="3" width="9.93359375" customWidth="true"/>
-    <col min="4" max="4" width="10.046875" customWidth="true"/>
-    <col min="5" max="5" width="10.046875" customWidth="true"/>
-    <col min="6" max="6" width="11.37890625" customWidth="true"/>
-    <col min="7" max="7" width="7.37890625" customWidth="true"/>
+    <col min="1" max="1" width="7.28515625" customWidth="true"/>
+    <col min="2" max="2" width="35.140625" customWidth="true"/>
+    <col min="3" max="3" width="10.85546875" customWidth="true"/>
+    <col min="4" max="4" width="11" customWidth="true"/>
+    <col min="5" max="5" width="10.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.28515625" customWidth="true"/>
+    <col min="7" max="7" width="7.85546875" customWidth="true"/>
     <col min="8" max="8" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
@@ -243,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C2" s="0">
         <v>1308</v>
@@ -267,7 +549,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -279,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="G3" s="0">
         <v>0</v>
@@ -293,7 +575,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -305,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -319,7 +601,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
@@ -331,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -345,7 +627,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C6" s="0">
         <v>2966</v>
@@ -357,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
@@ -371,7 +653,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C7" s="0">
         <v>1076</v>
@@ -383,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -397,7 +679,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C8" s="0">
         <v>0</v>
@@ -421,7 +703,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C9" s="0">
         <v>1391</v>
@@ -433,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="G9" s="0">
         <v>0</v>
@@ -447,7 +729,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C10" s="0">
         <v>1297</v>
@@ -459,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
@@ -473,7 +755,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="C11" s="0">
         <v>738</v>
@@ -485,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="G11" s="0">
         <v>0</v>
@@ -499,7 +781,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="C12" s="0">
         <v>1290</v>
@@ -511,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
@@ -525,7 +807,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="C13" s="0">
         <v>0</v>
@@ -537,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="G13" s="0">
         <v>0</v>
@@ -551,7 +833,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C14" s="0">
         <v>1152</v>
@@ -563,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
@@ -577,7 +859,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C15" s="0">
         <v>9161</v>
@@ -589,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="G15" s="0">
         <v>0</v>
@@ -603,7 +885,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C16" s="0">
         <v>1453</v>
@@ -615,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -629,7 +911,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="C17" s="0">
         <v>1110</v>
@@ -641,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="G17" s="0">
         <v>0</v>
@@ -655,7 +937,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C18" s="0">
         <v>775</v>
@@ -667,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="G18" s="0">
         <v>0</v>
@@ -681,7 +963,7 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C19" s="0">
         <v>0</v>
@@ -693,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="G19" s="0">
         <v>0</v>
@@ -707,7 +989,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="C20" s="0">
         <v>2218</v>
@@ -719,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="G20" s="0">
         <v>0</v>
@@ -733,7 +1015,7 @@
         <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C21" s="0">
         <v>0</v>
@@ -745,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="G21" s="0">
         <v>0</v>
@@ -759,7 +1041,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C22" s="0">
         <v>6309</v>
@@ -771,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="G22" s="0">
         <v>0</v>
@@ -785,7 +1067,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C23" s="0">
         <v>2471</v>
@@ -797,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="G23" s="0">
         <v>0</v>
@@ -811,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C24" s="0">
         <v>0</v>
@@ -823,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="G24" s="0">
         <v>0</v>
@@ -837,7 +1119,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C25" s="0">
         <v>0</v>
@@ -849,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
@@ -863,7 +1145,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -887,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C27" s="0">
         <v>0</v>
@@ -911,7 +1193,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="C28" s="0">
         <v>0</v>
@@ -923,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="G28" s="0">
         <v>0</v>
@@ -937,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C29" s="0">
         <v>0</v>
@@ -961,7 +1243,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -985,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C31" s="0">
         <v>0</v>
@@ -1009,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C32" s="0">
         <v>0</v>
@@ -1033,7 +1315,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C33" s="0">
         <v>0</v>
@@ -1057,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C34" s="0">
         <v>0</v>
@@ -1081,7 +1363,7 @@
         <v>11</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C35" s="0">
         <v>0</v>
@@ -1105,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C36" s="0">
         <v>0</v>
@@ -1129,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C37" s="0">
         <v>0</v>
@@ -1153,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C38" s="0">
         <v>0</v>
@@ -1177,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -1201,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C40" s="0">
         <v>0</v>
@@ -1225,7 +1507,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="C41" s="0">
         <v>0</v>
@@ -1237,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="G41" s="0">
         <v>0</v>
@@ -1251,7 +1533,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="C42" s="0">
         <v>0</v>
@@ -1275,7 +1557,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="C43" s="0">
         <v>0</v>
@@ -1287,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="G43" s="0">
         <v>0</v>
@@ -1301,7 +1583,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="C44" s="0">
         <v>0</v>
@@ -1313,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="G44" s="0">
         <v>0</v>
@@ -1327,7 +1609,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C45" s="0">
         <v>556</v>
@@ -1339,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="G45" s="0">
         <v>0</v>
@@ -1353,7 +1635,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C46" s="0">
         <v>1107</v>
@@ -1365,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="G46" s="0">
         <v>0</v>
@@ -1379,7 +1661,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C47" s="0">
         <v>443</v>
@@ -1391,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="G47" s="0">
         <v>0</v>
@@ -1405,7 +1687,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C48" s="0">
         <v>273</v>
@@ -1417,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="G48" s="0">
         <v>0</v>
@@ -1431,7 +1713,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C49" s="0">
         <v>914</v>
@@ -1455,7 +1737,7 @@
         <v>24</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C50" s="0">
         <v>1049</v>

--- a/Goktekin/Landuse_Layer.xlsx
+++ b/Goktekin/Landuse_Layer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="193">
   <si>
     <t>zoneID</t>
   </si>
@@ -433,6 +433,162 @@
   </si>
   <si>
     <t>setback</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>densityCap</t>
+  </si>
+  <si>
+    <t>zoneID</t>
+  </si>
+  <si>
+    <t>LUf</t>
+  </si>
+  <si>
+    <t>AGRICULTURE</t>
+  </si>
+  <si>
+    <t>FOREST</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>INDUSTRY</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (LOW DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (GATED NEIGHBORHOOD)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (MODERATE DENSITY)</t>
+  </si>
+  <si>
+    <t>VACANT ZONE</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (MODERATE DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (LOW DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>VACANT ZONE</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>VACANT ZONE</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (MODERATE DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>RECREATION AREA</t>
+  </si>
+  <si>
+    <t>VACANT ZONE</t>
+  </si>
+  <si>
+    <t>INDUSTRY</t>
+  </si>
+  <si>
+    <t>VACANT ZONE</t>
+  </si>
+  <si>
+    <t>COMMERCIAL AND RESIDENTIAL</t>
+  </si>
+  <si>
+    <t>HISTORICAL PRESERVATION AREA</t>
+  </si>
+  <si>
+    <t>CITY CENTER</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (LOW DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (MODERATE DENSITY)</t>
+  </si>
+  <si>
+    <t>INDUSTRY</t>
+  </si>
+  <si>
+    <t>RECREATION AREA</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (LOW DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (MODERATE DENSITY)</t>
+  </si>
+  <si>
+    <t>floorAreaR</t>
+  </si>
+  <si>
+    <t>setback</t>
+  </si>
+  <si>
+    <t>avgIncome</t>
+  </si>
+  <si>
+    <t>midIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeB</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>highIncome</t>
+  </si>
+  <si>
+    <t>midIncome</t>
+  </si>
+  <si>
+    <t>highIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>lowIncomeB</t>
+  </si>
+  <si>
+    <t>midIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>midIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>midIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeB</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
   </si>
   <si>
     <t>area</t>
@@ -481,168 +637,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H57"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="true"/>
-    <col min="2" max="2" width="35.140625" customWidth="true"/>
-    <col min="3" max="3" width="10.85546875" customWidth="true"/>
-    <col min="4" max="4" width="11" customWidth="true"/>
+    <col min="1" max="1" width="10.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11" customWidth="true"/>
+    <col min="3" max="3" width="7.28515625" customWidth="true"/>
+    <col min="4" max="4" width="35.140625" customWidth="true"/>
     <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.28515625" customWidth="true"/>
-    <col min="7" max="7" width="7.85546875" customWidth="true"/>
+    <col min="6" max="6" width="7.85546875" customWidth="true"/>
+    <col min="7" max="7" width="12.28515625" customWidth="true"/>
     <col min="8" max="8" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
+        <v>1308</v>
+      </c>
+      <c r="B2" s="0">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0">
         <v>22</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1308</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0</v>
-      </c>
+      <c r="D2" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="0"/>
       <c r="F2" s="0"/>
-      <c r="G2" s="0">
-        <v>0</v>
+      <c r="G2" s="0" t="s">
+        <v>177</v>
       </c>
       <c r="H2" s="0">
-        <v>58.265999999999998</v>
+        <v>15.752000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0">
+        <v>50</v>
+      </c>
+      <c r="C3" s="0">
         <v>23</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0">
-        <v>250</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0</v>
-      </c>
+      <c r="D3" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
       <c r="H3" s="0">
-        <v>69.823999999999998</v>
+        <v>46.843000000000004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0">
+        <v>50</v>
+      </c>
+      <c r="C4" s="0">
         <v>25</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0">
-        <v>250</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="0">
-        <v>0</v>
-      </c>
+      <c r="D4" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
       <c r="H4" s="0">
         <v>66.799000000000007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" s="0">
+        <v>50</v>
+      </c>
+      <c r="C5" s="0">
         <v>26</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0">
-        <v>250</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="0">
-        <v>0</v>
-      </c>
+      <c r="D5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
       <c r="H5" s="0">
         <v>47.182000000000002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
+        <v>2966</v>
+      </c>
+      <c r="B6" s="0">
+        <v>350</v>
+      </c>
+      <c r="C6" s="0">
         <v>39</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="0">
-        <v>2966</v>
-      </c>
-      <c r="D6" s="0">
-        <v>350</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="0">
-        <v>0</v>
+      <c r="D6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0" t="s">
+        <v>178</v>
       </c>
       <c r="H6" s="0">
         <v>8</v>
@@ -650,75 +782,63 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
+        <v>1076</v>
+      </c>
+      <c r="B7" s="0">
+        <v>250</v>
+      </c>
+      <c r="C7" s="0">
         <v>38</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="0">
-        <v>1076</v>
-      </c>
-      <c r="D7" s="0">
-        <v>250</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="0">
-        <v>0</v>
+      <c r="D7" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="H7" s="0">
-        <v>4.9450000000000003</v>
+        <v>4.9329999999999998</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0">
+        <v>125</v>
+      </c>
+      <c r="C8" s="0">
         <v>33</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0">
-        <v>0</v>
-      </c>
+      <c r="D8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="0"/>
       <c r="F8" s="0"/>
-      <c r="G8" s="0">
-        <v>0</v>
-      </c>
+      <c r="G8" s="0"/>
       <c r="H8" s="0">
         <v>3.4199999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
+        <v>1391</v>
+      </c>
+      <c r="B9" s="0">
+        <v>100</v>
+      </c>
+      <c r="C9" s="0">
         <v>31</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="0">
-        <v>1391</v>
-      </c>
-      <c r="D9" s="0">
-        <v>100</v>
-      </c>
-      <c r="E9" s="0">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="0">
-        <v>0</v>
+      <c r="D9" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0" t="s">
+        <v>180</v>
       </c>
       <c r="H9" s="0">
         <v>4.9880000000000004</v>
@@ -726,25 +846,21 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
+        <v>1297</v>
+      </c>
+      <c r="B10" s="0">
+        <v>100</v>
+      </c>
+      <c r="C10" s="0">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="0">
-        <v>1297</v>
-      </c>
-      <c r="D10" s="0">
-        <v>100</v>
-      </c>
-      <c r="E10" s="0">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="0">
-        <v>0</v>
+      <c r="D10" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0" t="s">
+        <v>180</v>
       </c>
       <c r="H10" s="0">
         <v>7.1989999999999998</v>
@@ -752,25 +868,21 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
+        <v>738</v>
+      </c>
+      <c r="B11" s="0">
+        <v>200</v>
+      </c>
+      <c r="C11" s="0">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="0">
-        <v>738</v>
-      </c>
-      <c r="D11" s="0">
-        <v>200</v>
-      </c>
-      <c r="E11" s="0">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="0">
-        <v>0</v>
+      <c r="D11" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0" t="s">
+        <v>180</v>
       </c>
       <c r="H11" s="0">
         <v>2.7109999999999999</v>
@@ -778,25 +890,21 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
+        <v>1290</v>
+      </c>
+      <c r="B12" s="0">
+        <v>200</v>
+      </c>
+      <c r="C12" s="0">
         <v>29</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="0">
-        <v>1290</v>
-      </c>
-      <c r="D12" s="0">
-        <v>200</v>
-      </c>
-      <c r="E12" s="0">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="0">
-        <v>0</v>
+      <c r="D12" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0" t="s">
+        <v>180</v>
       </c>
       <c r="H12" s="0">
         <v>3.4529999999999998</v>
@@ -804,51 +912,41 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
+        <v>0</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0">
         <v>44</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="0">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0">
-        <v>250</v>
-      </c>
-      <c r="E13" s="0">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="0">
-        <v>0</v>
-      </c>
+      <c r="D13" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
       <c r="H13" s="0">
         <v>10.583</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
+        <v>1152</v>
+      </c>
+      <c r="B14" s="0">
+        <v>200</v>
+      </c>
+      <c r="C14" s="0">
         <v>43</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="0">
-        <v>1152</v>
-      </c>
-      <c r="D14" s="0">
-        <v>200</v>
-      </c>
-      <c r="E14" s="0">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="0">
-        <v>0</v>
+      <c r="D14" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="H14" s="0">
         <v>4.9089999999999998</v>
@@ -856,25 +954,21 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
+        <v>9161</v>
+      </c>
+      <c r="B15" s="0">
+        <v>200</v>
+      </c>
+      <c r="C15" s="0">
         <v>41</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="0">
-        <v>9161</v>
-      </c>
-      <c r="D15" s="0">
-        <v>200</v>
-      </c>
-      <c r="E15" s="0">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="0">
-        <v>0</v>
+      <c r="D15" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="H15" s="0">
         <v>38.442999999999998</v>
@@ -882,25 +976,21 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
+        <v>1453</v>
+      </c>
+      <c r="B16" s="0">
+        <v>250</v>
+      </c>
+      <c r="C16" s="0">
         <v>42</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="0">
-        <v>1453</v>
-      </c>
-      <c r="D16" s="0">
-        <v>250</v>
-      </c>
-      <c r="E16" s="0">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="0">
-        <v>0</v>
+      <c r="D16" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="H16" s="0">
         <v>5.0250000000000004</v>
@@ -908,25 +998,21 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
+        <v>1110</v>
+      </c>
+      <c r="B17" s="0">
+        <v>100</v>
+      </c>
+      <c r="C17" s="0">
         <v>30</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="0">
-        <v>1110</v>
-      </c>
-      <c r="D17" s="0">
-        <v>100</v>
-      </c>
-      <c r="E17" s="0">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="0">
-        <v>0</v>
+      <c r="D17" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="H17" s="0">
         <v>9.157</v>
@@ -934,25 +1020,21 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
+        <v>775</v>
+      </c>
+      <c r="B18" s="0">
+        <v>350</v>
+      </c>
+      <c r="C18" s="0">
         <v>36</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="0">
-        <v>775</v>
-      </c>
-      <c r="D18" s="0">
-        <v>350</v>
-      </c>
-      <c r="E18" s="0">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="0">
-        <v>0</v>
+      <c r="D18" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0" t="s">
+        <v>183</v>
       </c>
       <c r="H18" s="0">
         <v>4.835</v>
@@ -960,51 +1042,41 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
+        <v>0</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0">
         <v>46</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="0">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0">
-        <v>250</v>
-      </c>
-      <c r="E19" s="0">
-        <v>0</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="0">
-        <v>0</v>
-      </c>
+      <c r="D19" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
       <c r="H19" s="0">
-        <v>13.231999999999999</v>
+        <v>0.096000000000000002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
+        <v>2218</v>
+      </c>
+      <c r="B20" s="0">
+        <v>350</v>
+      </c>
+      <c r="C20" s="0">
         <v>40</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="0">
-        <v>2218</v>
-      </c>
-      <c r="D20" s="0">
-        <v>350</v>
-      </c>
-      <c r="E20" s="0">
-        <v>0</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="0">
-        <v>0</v>
+      <c r="D20" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0" t="s">
+        <v>183</v>
       </c>
       <c r="H20" s="0">
         <v>5.1980000000000004</v>
@@ -1012,51 +1084,41 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
+        <v>0</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0">
         <v>45</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="0">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0">
-        <v>250</v>
-      </c>
-      <c r="E21" s="0">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="0">
-        <v>0</v>
-      </c>
+      <c r="D21" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
       <c r="H21" s="0">
         <v>2.7029999999999998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
+        <v>6309</v>
+      </c>
+      <c r="B22" s="0">
+        <v>250</v>
+      </c>
+      <c r="C22" s="0">
         <v>37</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="0">
-        <v>6309</v>
-      </c>
-      <c r="D22" s="0">
-        <v>250</v>
-      </c>
-      <c r="E22" s="0">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="0">
-        <v>0</v>
+      <c r="D22" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="H22" s="0">
         <v>47.555</v>
@@ -1064,25 +1126,21 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
+        <v>2471</v>
+      </c>
+      <c r="B23" s="0">
+        <v>350</v>
+      </c>
+      <c r="C23" s="0">
         <v>35</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="0">
-        <v>2471</v>
-      </c>
-      <c r="D23" s="0">
-        <v>350</v>
-      </c>
-      <c r="E23" s="0">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="0">
-        <v>0</v>
+      <c r="D23" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="H23" s="0">
         <v>15.051</v>
@@ -1090,541 +1148,441 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
+        <v>0</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0">
         <v>9</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="0">
-        <v>0</v>
-      </c>
-      <c r="D24" s="0">
-        <v>250</v>
-      </c>
-      <c r="E24" s="0">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="0">
-        <v>0</v>
-      </c>
+      <c r="D24" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
       <c r="H24" s="0">
         <v>2.9670000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
+        <v>0</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0">
         <v>8</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="0">
-        <v>0</v>
-      </c>
-      <c r="D25" s="0">
-        <v>250</v>
-      </c>
-      <c r="E25" s="0">
-        <v>0</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="0">
-        <v>0</v>
-      </c>
+      <c r="D25" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
       <c r="H25" s="0">
         <v>0.80100000000000005</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
+        <v>0</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0">
         <v>10</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="0">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0">
-        <v>0</v>
-      </c>
-      <c r="E26" s="0">
-        <v>0</v>
-      </c>
+      <c r="D26" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="0"/>
       <c r="F26" s="0"/>
-      <c r="G26" s="0">
-        <v>0</v>
-      </c>
+      <c r="G26" s="0"/>
       <c r="H26" s="0">
-        <v>2.129</v>
+        <v>2.1190000000000002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
+        <v>0</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0">
         <v>14</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="0">
-        <v>0</v>
-      </c>
-      <c r="D27" s="0">
-        <v>0</v>
-      </c>
-      <c r="E27" s="0">
-        <v>0</v>
-      </c>
+      <c r="D27" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="0"/>
       <c r="F27" s="0"/>
-      <c r="G27" s="0">
-        <v>0</v>
-      </c>
+      <c r="G27" s="0"/>
       <c r="H27" s="0">
         <v>0.68200000000000005</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
+        <v>0</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0">
         <v>13</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="0">
-        <v>0</v>
-      </c>
-      <c r="D28" s="0">
-        <v>250</v>
-      </c>
-      <c r="E28" s="0">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="G28" s="0">
-        <v>0</v>
-      </c>
+      <c r="D28" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
       <c r="H28" s="0">
-        <v>3.7109999999999999</v>
+        <v>3.6989999999999998</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
+        <v>0</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0">
         <v>2</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="0">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0">
-        <v>0</v>
-      </c>
-      <c r="E29" s="0">
-        <v>0</v>
-      </c>
+      <c r="D29" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="0"/>
       <c r="F29" s="0"/>
-      <c r="G29" s="0">
-        <v>0</v>
-      </c>
+      <c r="G29" s="0"/>
       <c r="H29" s="0">
         <v>2.0910000000000002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
+        <v>0</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0">
         <v>15</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="0">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0">
-        <v>0</v>
-      </c>
-      <c r="E30" s="0">
-        <v>0</v>
-      </c>
+      <c r="D30" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="0"/>
       <c r="F30" s="0"/>
-      <c r="G30" s="0">
-        <v>0</v>
-      </c>
+      <c r="G30" s="0"/>
       <c r="H30" s="0">
         <v>0.437</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
+        <v>0</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0">
         <v>1</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="0">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0">
-        <v>0</v>
-      </c>
-      <c r="E31" s="0">
-        <v>0</v>
-      </c>
+      <c r="D31" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="0"/>
       <c r="F31" s="0"/>
-      <c r="G31" s="0">
-        <v>0</v>
-      </c>
+      <c r="G31" s="0"/>
       <c r="H31" s="0">
         <v>0.59599999999999997</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
+        <v>0</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0">
         <v>16</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="0">
-        <v>0</v>
-      </c>
-      <c r="D32" s="0">
-        <v>0</v>
-      </c>
-      <c r="E32" s="0">
-        <v>0</v>
-      </c>
+      <c r="D32" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="0"/>
       <c r="F32" s="0"/>
-      <c r="G32" s="0">
-        <v>0</v>
-      </c>
+      <c r="G32" s="0"/>
       <c r="H32" s="0">
         <v>0.191</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
+        <v>0</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0">
         <v>17</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="0">
-        <v>0</v>
-      </c>
-      <c r="D33" s="0">
-        <v>0</v>
-      </c>
-      <c r="E33" s="0">
-        <v>0</v>
-      </c>
+      <c r="D33" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="0"/>
       <c r="F33" s="0"/>
-      <c r="G33" s="0">
-        <v>0</v>
-      </c>
+      <c r="G33" s="0"/>
       <c r="H33" s="0">
         <v>0.17299999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
+        <v>0</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0">
         <v>12</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="0">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0">
-        <v>0</v>
-      </c>
-      <c r="E34" s="0">
-        <v>0</v>
-      </c>
+      <c r="D34" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="0"/>
       <c r="F34" s="0"/>
-      <c r="G34" s="0">
-        <v>0</v>
-      </c>
+      <c r="G34" s="0"/>
       <c r="H34" s="0">
         <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
+        <v>0</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0">
         <v>11</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="0">
-        <v>0</v>
-      </c>
-      <c r="D35" s="0">
-        <v>0</v>
-      </c>
-      <c r="E35" s="0">
-        <v>0</v>
-      </c>
+      <c r="D35" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="0"/>
       <c r="F35" s="0"/>
-      <c r="G35" s="0">
-        <v>0</v>
-      </c>
+      <c r="G35" s="0"/>
       <c r="H35" s="0">
         <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
+        <v>0</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0">
         <v>3</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="0">
-        <v>0</v>
-      </c>
-      <c r="D36" s="0">
-        <v>0</v>
-      </c>
-      <c r="E36" s="0">
-        <v>0</v>
-      </c>
+      <c r="D36" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="0"/>
       <c r="F36" s="0"/>
-      <c r="G36" s="0">
-        <v>0</v>
-      </c>
+      <c r="G36" s="0"/>
       <c r="H36" s="0">
         <v>0.313</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
+        <v>0</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0">
         <v>4</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="0">
-        <v>0</v>
-      </c>
-      <c r="D37" s="0">
-        <v>0</v>
-      </c>
-      <c r="E37" s="0">
-        <v>0</v>
-      </c>
+      <c r="D37" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="0"/>
       <c r="F37" s="0"/>
-      <c r="G37" s="0">
-        <v>0</v>
-      </c>
+      <c r="G37" s="0"/>
       <c r="H37" s="0">
         <v>0.20999999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
+        <v>0</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0">
         <v>5</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="0">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0">
-        <v>0</v>
-      </c>
-      <c r="E38" s="0">
-        <v>0</v>
-      </c>
+      <c r="D38" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="0"/>
       <c r="F38" s="0"/>
-      <c r="G38" s="0">
-        <v>0</v>
-      </c>
+      <c r="G38" s="0"/>
       <c r="H38" s="0">
         <v>0.34000000000000002</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
+        <v>0</v>
+      </c>
+      <c r="B39" s="0">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0">
         <v>6</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="0">
-        <v>0</v>
-      </c>
-      <c r="D39" s="0">
-        <v>0</v>
-      </c>
-      <c r="E39" s="0">
-        <v>0</v>
-      </c>
+      <c r="D39" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="0"/>
       <c r="F39" s="0"/>
-      <c r="G39" s="0">
-        <v>0</v>
-      </c>
+      <c r="G39" s="0"/>
       <c r="H39" s="0">
         <v>0.058000000000000003</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
+        <v>0</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0">
         <v>7</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="0">
-        <v>0</v>
-      </c>
-      <c r="D40" s="0">
-        <v>0</v>
-      </c>
-      <c r="E40" s="0">
-        <v>0</v>
-      </c>
+      <c r="D40" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="0"/>
       <c r="F40" s="0"/>
-      <c r="G40" s="0">
-        <v>0</v>
-      </c>
+      <c r="G40" s="0"/>
       <c r="H40" s="0">
         <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
+        <v>0</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0">
         <v>47</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="0">
-        <v>0</v>
-      </c>
-      <c r="D41" s="0">
-        <v>250</v>
-      </c>
-      <c r="E41" s="0">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" s="0">
-        <v>0</v>
-      </c>
+      <c r="D41" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
       <c r="H41" s="0">
         <v>4.8390000000000004</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
+        <v>0</v>
+      </c>
+      <c r="B42" s="0">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0">
         <v>34</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="0">
-        <v>0</v>
-      </c>
-      <c r="D42" s="0">
-        <v>0</v>
-      </c>
-      <c r="E42" s="0">
-        <v>0</v>
-      </c>
+      <c r="D42" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="0"/>
       <c r="F42" s="0"/>
-      <c r="G42" s="0">
-        <v>0</v>
-      </c>
+      <c r="G42" s="0"/>
       <c r="H42" s="0">
         <v>7.2169999999999996</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
+        <v>0</v>
+      </c>
+      <c r="B43" s="0">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0">
         <v>48</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="0">
-        <v>0</v>
-      </c>
-      <c r="D43" s="0">
-        <v>250</v>
-      </c>
-      <c r="E43" s="0">
-        <v>0</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="0">
-        <v>0</v>
-      </c>
+      <c r="D43" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
       <c r="H43" s="0">
         <v>26.57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
+        <v>0</v>
+      </c>
+      <c r="B44" s="0">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0">
         <v>49</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="0">
-        <v>0</v>
-      </c>
-      <c r="D44" s="0">
-        <v>250</v>
-      </c>
-      <c r="E44" s="0">
-        <v>0</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" s="0">
-        <v>0</v>
-      </c>
+      <c r="D44" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
       <c r="H44" s="0">
         <v>3.056</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
+        <v>556</v>
+      </c>
+      <c r="B45" s="0">
+        <v>250</v>
+      </c>
+      <c r="C45" s="0">
         <v>18</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="0">
-        <v>556</v>
-      </c>
-      <c r="D45" s="0">
-        <v>250</v>
-      </c>
-      <c r="E45" s="0">
-        <v>0</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" s="0">
-        <v>0</v>
+      <c r="D45" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0" t="s">
+        <v>185</v>
       </c>
       <c r="H45" s="0">
         <v>1.381</v>
@@ -1632,25 +1590,21 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
+        <v>1107</v>
+      </c>
+      <c r="B46" s="0">
+        <v>250</v>
+      </c>
+      <c r="C46" s="0">
         <v>19</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="0">
-        <v>1107</v>
-      </c>
-      <c r="D46" s="0">
-        <v>250</v>
-      </c>
-      <c r="E46" s="0">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G46" s="0">
-        <v>0</v>
+      <c r="D46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0" t="s">
+        <v>185</v>
       </c>
       <c r="H46" s="0">
         <v>1.1539999999999999</v>
@@ -1658,25 +1612,21 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
+        <v>443</v>
+      </c>
+      <c r="B47" s="0">
+        <v>250</v>
+      </c>
+      <c r="C47" s="0">
         <v>20</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="0">
-        <v>443</v>
-      </c>
-      <c r="D47" s="0">
-        <v>250</v>
-      </c>
-      <c r="E47" s="0">
-        <v>0</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" s="0">
-        <v>0</v>
+      <c r="D47" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0" t="s">
+        <v>186</v>
       </c>
       <c r="H47" s="0">
         <v>0.34399999999999997</v>
@@ -1684,25 +1634,21 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
+        <v>273</v>
+      </c>
+      <c r="B48" s="0">
+        <v>250</v>
+      </c>
+      <c r="C48" s="0">
         <v>21</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="0">
-        <v>273</v>
-      </c>
-      <c r="D48" s="0">
-        <v>250</v>
-      </c>
-      <c r="E48" s="0">
-        <v>0</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="G48" s="0">
-        <v>0</v>
+      <c r="D48" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0" t="s">
+        <v>186</v>
       </c>
       <c r="H48" s="0">
         <v>0.26700000000000002</v>
@@ -1710,23 +1656,21 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
+        <v>914</v>
+      </c>
+      <c r="B49" s="0">
+        <v>350</v>
+      </c>
+      <c r="C49" s="0">
         <v>32</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="0">
-        <v>914</v>
-      </c>
-      <c r="D49" s="0">
-        <v>0</v>
-      </c>
-      <c r="E49" s="0">
-        <v>0</v>
-      </c>
+      <c r="D49" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="0"/>
       <c r="F49" s="0"/>
-      <c r="G49" s="0">
-        <v>0</v>
+      <c r="G49" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="H49" s="0">
         <v>3.5289999999999999</v>
@@ -1734,26 +1678,200 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
+        <v>1049</v>
+      </c>
+      <c r="B50" s="0">
+        <v>250</v>
+      </c>
+      <c r="C50" s="0">
         <v>24</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="0">
-        <v>1049</v>
-      </c>
-      <c r="D50" s="0">
-        <v>0</v>
-      </c>
-      <c r="E50" s="0">
-        <v>0</v>
-      </c>
+      <c r="D50" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="0"/>
       <c r="F50" s="0"/>
-      <c r="G50" s="0">
-        <v>0</v>
+      <c r="G50" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="H50" s="0">
         <v>3.5630000000000002</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>100</v>
+      </c>
+      <c r="B51" s="0">
+        <v>150</v>
+      </c>
+      <c r="C51" s="0">
+        <v>50</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="0">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0">
+        <v>0</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="0">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0</v>
+      </c>
+      <c r="B52" s="0">
+        <v>150</v>
+      </c>
+      <c r="C52" s="0">
+        <v>51</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="0">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H52" s="0">
+        <v>29.43</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0</v>
+      </c>
+      <c r="B53" s="0">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0">
+        <v>52</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0">
+        <v>0</v>
+      </c>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0">
+        <v>7.5700000000000003</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0</v>
+      </c>
+      <c r="B54" s="0">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0">
+        <v>53</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="0">
+        <v>0</v>
+      </c>
+      <c r="F54" s="0">
+        <v>0</v>
+      </c>
+      <c r="G54" s="0"/>
+      <c r="H54" s="0">
+        <v>2.1419999999999999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0</v>
+      </c>
+      <c r="B55" s="0">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0">
+        <v>54</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="0">
+        <v>0</v>
+      </c>
+      <c r="F55" s="0">
+        <v>0</v>
+      </c>
+      <c r="G55" s="0"/>
+      <c r="H55" s="0">
+        <v>3.2149999999999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>2400</v>
+      </c>
+      <c r="B56" s="0">
+        <v>150</v>
+      </c>
+      <c r="C56" s="0">
+        <v>55</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="0">
+        <v>0</v>
+      </c>
+      <c r="F56" s="0">
+        <v>0</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H56" s="0">
+        <v>10.912000000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0</v>
+      </c>
+      <c r="B57" s="0">
+        <v>150</v>
+      </c>
+      <c r="C57" s="0">
+        <v>56</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="0">
+        <v>0</v>
+      </c>
+      <c r="F57" s="0">
+        <v>0</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H57" s="0">
+        <v>13.161</v>
       </c>
     </row>
   </sheetData>

--- a/Goktekin/Landuse_Layer.xlsx
+++ b/Goktekin/Landuse_Layer.xlsx
@@ -13,7 +13,148 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="94">
+  <si>
+    <t>zoneID</t>
+  </si>
+  <si>
+    <t>LuF</t>
+  </si>
+  <si>
+    <t>AGRICULTURE</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>NEW DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>INDUSTRY</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (LOW DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (GATED NEIGHBORHOOD)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (MODERATE DENSITY)</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (MODERATE DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (LOW DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (MODERATE DENSITY)</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL (HIGH DENSITY)</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RECREATION AREA</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>RECREATION AREA</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>INDUSTRY</t>
+  </si>
+  <si>
+    <t>NEW PLANNING</t>
+  </si>
+  <si>
+    <t>COMMERCIAL AND RESIDENTIAL</t>
+  </si>
+  <si>
+    <t>HISTORICAL PRESERVATION AREA</t>
+  </si>
+  <si>
+    <t>CITY CENTER</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>densityCap</t>
+  </si>
+  <si>
+    <t>floorAreaR</t>
+  </si>
+  <si>
+    <t>avgIncome</t>
+  </si>
+  <si>
+    <t>highIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeB</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>highIncome</t>
+  </si>
+  <si>
+    <t>midIncome</t>
+  </si>
+  <si>
+    <t>highIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>lowIncomeB</t>
+  </si>
+  <si>
+    <t>midIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>midIncome</t>
+  </si>
+  <si>
+    <t>lowIncomeA</t>
+  </si>
+  <si>
+    <t>setback</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
   <si>
     <t>zoneID</t>
   </si>
@@ -202,40 +343,40 @@
   <dimension ref="A1:H50"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.82421875" customWidth="true"/>
-    <col min="2" max="2" width="33.37890625" customWidth="true"/>
-    <col min="3" max="3" width="9.93359375" customWidth="true"/>
-    <col min="4" max="4" width="10.046875" customWidth="true"/>
-    <col min="5" max="5" width="10.046875" customWidth="true"/>
-    <col min="6" max="6" width="11.37890625" customWidth="true"/>
-    <col min="7" max="7" width="7.37890625" customWidth="true"/>
+    <col min="1" max="1" width="7.28515625" customWidth="true"/>
+    <col min="2" max="2" width="35.140625" customWidth="true"/>
+    <col min="3" max="3" width="10.85546875" customWidth="true"/>
+    <col min="4" max="4" width="11" customWidth="true"/>
+    <col min="5" max="5" width="10.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.28515625" customWidth="true"/>
+    <col min="7" max="7" width="7.85546875" customWidth="true"/>
     <col min="8" max="8" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
@@ -243,7 +384,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C2" s="0">
         <v>1308</v>
@@ -267,7 +408,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -279,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="G3" s="0">
         <v>0</v>
@@ -293,7 +434,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -305,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -319,7 +460,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
@@ -331,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -345,7 +486,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C6" s="0">
         <v>2966</v>
@@ -357,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
@@ -371,7 +512,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C7" s="0">
         <v>1076</v>
@@ -383,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -397,7 +538,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C8" s="0">
         <v>0</v>
@@ -421,7 +562,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C9" s="0">
         <v>1391</v>
@@ -433,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="G9" s="0">
         <v>0</v>
@@ -447,7 +588,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C10" s="0">
         <v>1297</v>
@@ -459,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
@@ -473,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0">
         <v>738</v>
@@ -485,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="G11" s="0">
         <v>0</v>
@@ -499,7 +640,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0">
         <v>1290</v>
@@ -511,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
@@ -525,7 +666,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C13" s="0">
         <v>0</v>
@@ -537,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G13" s="0">
         <v>0</v>
@@ -551,7 +692,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C14" s="0">
         <v>1152</v>
@@ -563,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
@@ -577,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0">
         <v>9161</v>
@@ -589,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G15" s="0">
         <v>0</v>
@@ -603,7 +744,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0">
         <v>1453</v>
@@ -615,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -629,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0">
         <v>1110</v>
@@ -641,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="G17" s="0">
         <v>0</v>
@@ -655,7 +796,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0">
         <v>775</v>
@@ -667,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G18" s="0">
         <v>0</v>
@@ -681,7 +822,7 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C19" s="0">
         <v>0</v>
@@ -693,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G19" s="0">
         <v>0</v>
@@ -707,7 +848,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C20" s="0">
         <v>2218</v>
@@ -719,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G20" s="0">
         <v>0</v>
@@ -733,7 +874,7 @@
         <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C21" s="0">
         <v>0</v>
@@ -745,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G21" s="0">
         <v>0</v>
@@ -759,7 +900,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C22" s="0">
         <v>6309</v>
@@ -771,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G22" s="0">
         <v>0</v>
@@ -785,7 +926,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C23" s="0">
         <v>2471</v>
@@ -797,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G23" s="0">
         <v>0</v>
@@ -811,7 +952,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C24" s="0">
         <v>0</v>
@@ -823,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="G24" s="0">
         <v>0</v>
@@ -837,7 +978,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C25" s="0">
         <v>0</v>
@@ -849,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
@@ -863,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -887,7 +1028,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C27" s="0">
         <v>0</v>
@@ -911,7 +1052,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C28" s="0">
         <v>0</v>
@@ -923,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="G28" s="0">
         <v>0</v>
@@ -937,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C29" s="0">
         <v>0</v>
@@ -961,7 +1102,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -985,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C31" s="0">
         <v>0</v>
@@ -1009,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C32" s="0">
         <v>0</v>
@@ -1033,7 +1174,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C33" s="0">
         <v>0</v>
@@ -1057,7 +1198,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C34" s="0">
         <v>0</v>
@@ -1081,7 +1222,7 @@
         <v>11</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C35" s="0">
         <v>0</v>
@@ -1105,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C36" s="0">
         <v>0</v>
@@ -1129,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C37" s="0">
         <v>0</v>
@@ -1153,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C38" s="0">
         <v>0</v>
@@ -1177,7 +1318,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -1201,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C40" s="0">
         <v>0</v>
@@ -1225,7 +1366,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C41" s="0">
         <v>0</v>
@@ -1237,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="G41" s="0">
         <v>0</v>
@@ -1251,7 +1392,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C42" s="0">
         <v>0</v>
@@ -1275,7 +1416,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C43" s="0">
         <v>0</v>
@@ -1287,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="G43" s="0">
         <v>0</v>
@@ -1301,7 +1442,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C44" s="0">
         <v>0</v>
@@ -1313,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="G44" s="0">
         <v>0</v>
@@ -1327,7 +1468,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C45" s="0">
         <v>556</v>
@@ -1339,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="G45" s="0">
         <v>0</v>
@@ -1353,7 +1494,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C46" s="0">
         <v>1107</v>
@@ -1365,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="G46" s="0">
         <v>0</v>
@@ -1379,7 +1520,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C47" s="0">
         <v>443</v>
@@ -1391,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G47" s="0">
         <v>0</v>
@@ -1405,7 +1546,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C48" s="0">
         <v>273</v>
@@ -1417,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G48" s="0">
         <v>0</v>
@@ -1431,7 +1572,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C49" s="0">
         <v>914</v>
@@ -1455,7 +1596,7 @@
         <v>24</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C50" s="0">
         <v>1049</v>
